--- a/database/Normalisasi.xlsx
+++ b/database/Normalisasi.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sebelum Normalisasi" sheetId="1" r:id="rId1"/>
     <sheet name="NF1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>TABEL PRODUK</t>
   </si>
@@ -153,13 +153,16 @@
   </si>
   <si>
     <t>TABEL PROFILE</t>
+  </si>
+  <si>
+    <t>ID Profil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,24 +252,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -273,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,9 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,9 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,10 +321,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,24 +628,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -661,31 +663,31 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -704,7 +706,7 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -742,7 +744,7 @@
       <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -780,7 +782,7 @@
       <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -904,7 +906,7 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -912,9 +914,10 @@
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
@@ -923,28 +926,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1063,19 +1066,19 @@
       <c r="F11" s="6"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9"/>
@@ -1122,124 +1125,117 @@
       <c r="E19" s="6"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="8"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1247,62 +1243,71 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>85612345833</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>85612345678</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>87788888112</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" tooltip="mailto:member1@gmail.com"/>
@@ -1310,5 +1315,6 @@
     <hyperlink ref="C24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>